--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>91.71</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.36</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.76</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1460,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.74</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.36</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.76</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.19</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.74</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.36</v>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.76</v>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1756,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.36</v>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1794,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>63.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0461</t>
+          <t>3.1583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -640,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>22.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1392</t>
+          <t>1.2164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -678,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>012420</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>广发价值领先混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.4429</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -716,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>014734</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>广发睿合混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>46.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.3187</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -754,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>014735</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>广发睿合混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>46.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -792,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0173</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -830,35 +884,111 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>58.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -894,7 +1024,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -924,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>83.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6847</t>
+          <t>2.9797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -962,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1000,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1194,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1094,36 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9558</t>
+          <t>1.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1132,36 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3496</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1185,21 +1315,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1364,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1264,36 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1960</t>
+          <t>2.9558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1302,36 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4768</t>
+          <t>1.3496</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1355,21 +1485,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1534,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1434,36 +1564,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.82</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.88</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9797</t>
+          <t>1.6847</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1472,36 +1602,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1573</t>
+          <t>0.0603</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1510,36 +1640,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1704,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1604,36 +1734,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.04</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1583</t>
+          <t>2.0461</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1642,36 +1772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.32</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2164</t>
+          <t>0.1392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1810,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012420</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值领先混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>56.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4429</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1718,36 +1848,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014734</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿合混合A</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.64</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3187</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1756,36 +1886,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014735</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿合混合C</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.64</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1794,36 +1924,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>85.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0829</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1832,111 +1962,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58.02</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1951,144 +2005,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>5.37</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.19</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.74</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.76</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -990,176 +1975,6 @@
       </c>
       <c r="H10" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9797</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010761</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商甄选回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1573</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1224,36 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>83.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1960</t>
+          <t>2.9797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4768</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1310,26 +2125,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +2179,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1394,36 +2209,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9558</t>
+          <t>1.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1432,36 +2247,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3496</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1485,21 +2300,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1564,36 +2379,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6847</t>
+          <t>2.9558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1602,36 +2417,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>1.3496</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1640,36 +2455,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1678,6 +2493,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
+++ b/数据整理/stocks/港股/01055-中国南方航空股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>7.69</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>5.37</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4.19</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.36</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.76</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,1107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1975,176 +3092,6 @@
       </c>
       <c r="H10" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9797</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010761</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商甄选回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1573</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2209,36 +3156,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>61.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>83.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1960</t>
+          <t>2.9797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2247,36 +3194,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4768</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2295,26 +3242,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +3296,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2379,36 +3326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.53</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9558</t>
+          <t>1.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2417,36 +3364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3496</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2470,21 +3417,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2549,36 +3496,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>58.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6847</t>
+          <t>2.9558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,36 +3534,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>1.3496</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2625,36 +3572,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2663,6 +3610,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2982,98 +4099,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>